--- a/data/case1/11/Qlm2_13.xlsx
+++ b/data/case1/11/Qlm2_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.095466084332606727</v>
+        <v>-0.11720183821370256</v>
       </c>
       <c r="B1" s="0">
-        <v>0.095416999319112961</v>
+        <v>0.11713823926989164</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.07331261714437165</v>
+        <v>-0.13282508401517923</v>
       </c>
       <c r="B2" s="0">
-        <v>0.073190498408427729</v>
+        <v>0.13254847065938336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.023487598018791189</v>
+        <v>-0.084656897551852239</v>
       </c>
       <c r="B3" s="0">
-        <v>0.023448386850661862</v>
+        <v>0.084443168323554474</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.01544838689824779</v>
+        <v>-0.076443168346566281</v>
       </c>
       <c r="B4" s="0">
-        <v>0.014801128077117198</v>
+        <v>0.075987621939674455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.035812474625954493</v>
+        <v>-0.072987621952059989</v>
       </c>
       <c r="B5" s="0">
-        <v>0.034260150051747651</v>
+        <v>0.071440318927064261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.048778002448596425</v>
+        <v>-0.03419113132425089</v>
       </c>
       <c r="B6" s="0">
-        <v>0.048211266368696215</v>
+        <v>0.033778127179425965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.042073778369444703</v>
+        <v>-0.023778127211692812</v>
       </c>
       <c r="B7" s="0">
-        <v>0.041924802044238874</v>
+        <v>0.023682446692135262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.031924802110159245</v>
+        <v>-0.013682446725082009</v>
       </c>
       <c r="B8" s="0">
-        <v>0.031644737707735349</v>
+        <v>0.013525665254010999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029644737734200177</v>
+        <v>-0.011525665268716345</v>
       </c>
       <c r="B9" s="0">
-        <v>0.029409460335017013</v>
+        <v>0.011401874279278523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027409460364694382</v>
+        <v>-0.0094018742945340961</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027393892142660192</v>
+        <v>0.0093939653421610814</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024393892178125931</v>
+        <v>-0.0063939653597930857</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024367451868621437</v>
+        <v>0.00638184143305498</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020867451907603307</v>
+        <v>-0.0028818414519626856</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020671836491628959</v>
+        <v>0.002800990237207035</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017171836533973028</v>
+        <v>0.00069900974367254065</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017082778106728647</v>
+        <v>-0.00073159615661388955</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090827781741911195</v>
+        <v>0.0087315961268652487</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090537113295301452</v>
+        <v>-0.0087411182954832967</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080537113600502863</v>
+        <v>0.0097411182824824749</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080349471367080483</v>
+        <v>-0.0097468508294697997</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060349471731937498</v>
+        <v>0.011746850814359888</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060035044879058752</v>
+        <v>-0.011763458007545413</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004003504525249113</v>
+        <v>-0.0040036077341936149</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999516773244</v>
+        <v>0.0039999999807287523</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016104382207473122</v>
+        <v>0.021686844730751886</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091271221270631</v>
+        <v>-0.021759051558333908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091271243381829</v>
+        <v>-0.012091801542066349</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016577562503183</v>
+        <v>0.012017096322195275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080165775862326427</v>
+        <v>-0.0080170963326438027</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056143246185485</v>
+        <v>0.0080056971933615273</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056143485900364</v>
+        <v>-0.0040056972039366201</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999757993621</v>
+        <v>0.0039999999893360894</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045702900414974934</v>
+        <v>-0.043891573119896776</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045492349684982614</v>
+        <v>0.043680868355872704</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040492349717392351</v>
+        <v>-0.03868086837135376</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097685103509306</v>
+        <v>0.038286550203872949</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097685219552019</v>
+        <v>-0.018286550256284784</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999882304387</v>
+        <v>0.018188749791983483</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.012170764471120421</v>
+        <v>-0.035249187615820077</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.012205634644210761</v>
+        <v>0.035210958202268827</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.014705634622497854</v>
+        <v>-0.032710958216712882</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.014748577645669059</v>
+        <v>0.032665745961518056</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.017248577624263017</v>
+        <v>-0.03016574597624011</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.017492421015135484</v>
+        <v>0.029922478691206233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.019492420998085791</v>
+        <v>-0.027922478706250864</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.019646803601804486</v>
+        <v>0.027774347499216923</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.017422559478957211</v>
+        <v>-0.051294208183182199</v>
       </c>
       <c r="B29" s="0">
-        <v>0.017359358246920031</v>
+        <v>0.051181206741716778</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.042640641425963022</v>
+        <v>0.00881879310410838</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.042851146529474082</v>
+        <v>-0.0089414776706084886</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.049851146490361486</v>
+        <v>0.015941477642051893</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.049922414203960486</v>
+        <v>-0.015965682403404458</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040011668531061417</v>
+        <v>0.025965682367933951</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999783049134</v>
+        <v>-0.025990885742677605</v>
       </c>
     </row>
   </sheetData>
